--- a/resultados/comp_estFijo30.xlsx
+++ b/resultados/comp_estFijo30.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cod\arc_analysis\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84A0267-BFCF-4B0C-98F4-DBF559C83902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CF8BC6-8C6E-4A5E-A2BB-C3F0032720D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -492,7 +492,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -544,13 +544,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -859,19 +869,19 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="74.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" customWidth="1"/>
-    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="1" max="1" width="86" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="4" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="8" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -904,25 +914,25 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>15.395045</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>20.971734999999999</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>36.366779999999999</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>15.991308999999999</v>
       </c>
       <c r="F2" s="3">
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="5">
         <v>6786</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="4">
         <v>246</v>
       </c>
     </row>
@@ -930,25 +940,25 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>15.295866999999999</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>21.070913000000001</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>36.366779999999999</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>15.987231</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="5">
         <v>6830</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="4">
         <v>202</v>
       </c>
     </row>
@@ -956,25 +966,25 @@
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>15.248982</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>21.117798000000001</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>36.366779999999999</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>15.985089</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="5">
         <v>6851</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="4">
         <v>181</v>
       </c>
     </row>
@@ -982,25 +992,25 @@
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>15.147278</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>21.219501999999999</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>36.366779999999999</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>15.979968</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="5">
         <v>6897</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="4">
         <v>135</v>
       </c>
     </row>
@@ -1008,25 +1018,25 @@
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>15.129728</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>21.237051999999998</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>36.366779999999999</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>15.979018</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="5">
         <v>6905</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <v>127</v>
       </c>
     </row>
@@ -1034,25 +1044,25 @@
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>15.086031999999999</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>21.280747999999999</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>36.366779999999999</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>15.976571</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="5">
         <v>6925</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="4">
         <v>107</v>
       </c>
     </row>
@@ -1060,25 +1070,25 @@
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>15.014483</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>21.352297</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>36.366779999999999</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>15.972303999999999</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="5">
         <v>6958</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="4">
         <v>74</v>
       </c>
     </row>
@@ -1086,25 +1096,25 @@
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>14.992934999999999</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>21.373844999999999</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>36.366779999999999</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>15.970955999999999</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="5">
         <v>6968</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="4">
         <v>64</v>
       </c>
     </row>
@@ -1112,25 +1122,25 @@
       <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>13.419840000000001</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>21.382436999999999</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>34.802275999999999</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>15.976139</v>
       </c>
       <c r="F10" s="3">
         <v>5.3481129999999997</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>6965</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="4">
         <v>67</v>
       </c>
     </row>
@@ -1138,25 +1148,25 @@
       <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>12.620717000000001</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>21.219549000000001</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>33.840266</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>15.981012</v>
       </c>
       <c r="F11" s="3">
         <v>8.5475560000000002</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>6870</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="4">
         <v>162</v>
       </c>
     </row>
@@ -1164,25 +1174,25 @@
       <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>6.9976589999999996</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <v>18.506042000000001</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>25.503702000000001</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <v>15.977152999999999</v>
       </c>
       <c r="F12" s="3">
         <v>15.039230999999999</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>4013</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="4">
         <v>3019</v>
       </c>
     </row>
@@ -1190,25 +1200,25 @@
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>5.9156089999999999</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>19.858101000000001</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>25.773710000000001</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <v>16.254007000000001</v>
       </c>
       <c r="F13" s="3">
         <v>14.326905999999999</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>5068</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="4">
         <v>1964</v>
       </c>
     </row>
@@ -1216,25 +1226,25 @@
       <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>5.2344939999999998</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>20.783038000000001</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <v>26.017531999999999</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <v>15.996634999999999</v>
       </c>
       <c r="F14" s="3">
         <v>14.975752</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <v>6055</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="4">
         <v>977</v>
       </c>
     </row>
@@ -1242,25 +1252,25 @@
       <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>4.8763529999999999</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <v>20.142811999999999</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>25.019165000000001</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <v>16.001396</v>
       </c>
       <c r="F15" s="3">
         <v>15.310603</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="3">
         <v>5060</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="4">
         <v>1972</v>
       </c>
     </row>
@@ -1268,25 +1278,25 @@
       <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>4.6468530000000001</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <v>20.176113000000001</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3">
         <v>24.822966000000001</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <v>15.993145999999999</v>
       </c>
       <c r="F16" s="3">
         <v>15.391299999999999</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>5013</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="4">
         <v>2019</v>
       </c>
     </row>
@@ -1294,25 +1304,25 @@
       <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>4.4866450000000002</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <v>19.584078999999999</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="3">
         <v>24.070723999999998</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="3">
         <v>16.020239</v>
       </c>
       <c r="F17" s="3">
         <v>15.517818</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <v>4013</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="4">
         <v>3019</v>
       </c>
     </row>
@@ -1335,10 +1345,10 @@
       <c r="F18" s="3">
         <v>14.862829</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="4">
         <v>5564</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="4">
         <v>1468</v>
       </c>
     </row>
@@ -1361,10 +1371,10 @@
       <c r="F19" s="3">
         <v>15.306214000000001</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="4">
         <v>6061</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="4">
         <v>971</v>
       </c>
     </row>
@@ -1387,10 +1397,10 @@
       <c r="F20" s="3">
         <v>15.407987</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="4">
         <v>4586</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="4">
         <v>2446</v>
       </c>
     </row>
@@ -1413,10 +1423,10 @@
       <c r="F21" s="3">
         <v>15.397197</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="4">
         <v>4504</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="4">
         <v>2528</v>
       </c>
     </row>
@@ -1439,10 +1449,10 @@
       <c r="F22" s="3">
         <v>15.212227</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="4">
         <v>5598</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="4">
         <v>1434</v>
       </c>
     </row>
@@ -1465,10 +1475,10 @@
       <c r="F23" s="3">
         <v>14.937751</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="4">
         <v>5579</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="4">
         <v>1453</v>
       </c>
     </row>
@@ -1491,10 +1501,10 @@
       <c r="F24" s="3">
         <v>15.653259</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="4">
         <v>3959</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="4">
         <v>3073</v>
       </c>
     </row>
@@ -1517,10 +1527,10 @@
       <c r="F25" s="3">
         <v>15.457459</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="4">
         <v>5558</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="4">
         <v>1474</v>
       </c>
     </row>
@@ -1543,10 +1553,10 @@
       <c r="F26" s="3">
         <v>15.510675000000001</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="4">
         <v>4993</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="4">
         <v>2039</v>
       </c>
     </row>
@@ -1569,10 +1579,10 @@
       <c r="F27" s="3">
         <v>15.527585999999999</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="4">
         <v>3977</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="4">
         <v>3055</v>
       </c>
     </row>
@@ -1595,10 +1605,10 @@
       <c r="F28" s="3">
         <v>15.639104</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="4">
         <v>3980</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="4">
         <v>3052</v>
       </c>
     </row>
@@ -1621,10 +1631,10 @@
       <c r="F29" s="3">
         <v>15.465923999999999</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="4">
         <v>4546</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="4">
         <v>2486</v>
       </c>
     </row>
@@ -1647,10 +1657,10 @@
       <c r="F30" s="3">
         <v>15.81837</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="4">
         <v>4042</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="4">
         <v>2990</v>
       </c>
     </row>
@@ -1673,10 +1683,10 @@
       <c r="F31" s="3">
         <v>15.643409</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="4">
         <v>4521</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="4">
         <v>2511</v>
       </c>
     </row>
@@ -1699,10 +1709,10 @@
       <c r="F32" s="3">
         <v>15.648652999999999</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="4">
         <v>5034</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="4">
         <v>1998</v>
       </c>
     </row>
@@ -1725,10 +1735,10 @@
       <c r="F33" s="3">
         <v>15.739725999999999</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="4">
         <v>4493</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="4">
         <v>2539</v>
       </c>
     </row>
@@ -1751,10 +1761,10 @@
       <c r="F34" s="3">
         <v>15.579375000000001</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="4">
         <v>6021</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="4">
         <v>1011</v>
       </c>
     </row>
@@ -1777,10 +1787,10 @@
       <c r="F35" s="3">
         <v>15.694285000000001</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="4">
         <v>5569</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="4">
         <v>1463</v>
       </c>
     </row>
@@ -1803,10 +1813,10 @@
       <c r="F36" s="3">
         <v>15.823779999999999</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="4">
         <v>4629</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="4">
         <v>2403</v>
       </c>
     </row>
@@ -1829,10 +1839,10 @@
       <c r="F37" s="3">
         <v>15.742167999999999</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="4">
         <v>5060</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="4">
         <v>1972</v>
       </c>
     </row>
@@ -1855,10 +1865,10 @@
       <c r="F38" s="3">
         <v>15.772755999999999</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="4">
         <v>3548</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="4">
         <v>3484</v>
       </c>
     </row>
@@ -1881,10 +1891,10 @@
       <c r="F39" s="3">
         <v>15.540013999999999</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="4">
         <v>4574</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="4">
         <v>2458</v>
       </c>
     </row>
@@ -1907,10 +1917,10 @@
       <c r="F40" s="3">
         <v>15.743776</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="4">
         <v>4997</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="4">
         <v>2035</v>
       </c>
     </row>
@@ -1933,10 +1943,10 @@
       <c r="F41" s="3">
         <v>15.160568</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="4">
         <v>5014</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="4">
         <v>2018</v>
       </c>
     </row>
@@ -1959,10 +1969,10 @@
       <c r="F42" s="3">
         <v>15.608356000000001</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="4">
         <v>4052</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="4">
         <v>2980</v>
       </c>
     </row>
@@ -1985,10 +1995,10 @@
       <c r="F43" s="3">
         <v>15.660339</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="4">
         <v>5088</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="4">
         <v>1944</v>
       </c>
     </row>
@@ -2011,10 +2021,10 @@
       <c r="F44" s="3">
         <v>15.655562</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="4">
         <v>4595</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="4">
         <v>2437</v>
       </c>
     </row>
@@ -2037,10 +2047,10 @@
       <c r="F45" s="3">
         <v>15.806175</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="4">
         <v>4664</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="4">
         <v>2368</v>
       </c>
     </row>
@@ -2063,10 +2073,10 @@
       <c r="F46" s="3">
         <v>15.497299</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="4">
         <v>5063</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="4">
         <v>1969</v>
       </c>
     </row>
@@ -2089,10 +2099,10 @@
       <c r="F47" s="3">
         <v>15.789439</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="4">
         <v>5085</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="4">
         <v>1947</v>
       </c>
     </row>
@@ -2115,10 +2125,10 @@
       <c r="F48" s="3">
         <v>15.746461</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="4">
         <v>4570</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="4">
         <v>2462</v>
       </c>
     </row>
@@ -2141,10 +2151,10 @@
       <c r="F49" s="3">
         <v>15.827698</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="4">
         <v>5539</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="4">
         <v>1493</v>
       </c>
     </row>
@@ -2167,10 +2177,10 @@
       <c r="F50" s="3">
         <v>15.851514</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="4">
         <v>4555</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="4">
         <v>2477</v>
       </c>
     </row>
@@ -2193,10 +2203,10 @@
       <c r="F51" s="3">
         <v>15.756042000000001</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="4">
         <v>4571</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="4">
         <v>2461</v>
       </c>
     </row>
@@ -2219,10 +2229,10 @@
       <c r="F52" s="3">
         <v>15.839229</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="4">
         <v>4515</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="4">
         <v>2517</v>
       </c>
     </row>
@@ -2245,10 +2255,10 @@
       <c r="F53" s="3">
         <v>15.552085</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="4">
         <v>5991</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="4">
         <v>1041</v>
       </c>
     </row>
@@ -2271,10 +2281,10 @@
       <c r="F54" s="3">
         <v>15.775219999999999</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="4">
         <v>6061</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="4">
         <v>971</v>
       </c>
     </row>
@@ -2297,10 +2307,10 @@
       <c r="F55" s="3">
         <v>15.472507</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="4">
         <v>6056</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="4">
         <v>976</v>
       </c>
     </row>
@@ -2323,10 +2333,10 @@
       <c r="F56" s="3">
         <v>15.842549</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="4">
         <v>4040</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="4">
         <v>2992</v>
       </c>
     </row>
@@ -2349,10 +2359,10 @@
       <c r="F57" s="3">
         <v>15.311135999999999</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="4">
         <v>5534</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="4">
         <v>1498</v>
       </c>
     </row>
@@ -2375,10 +2385,10 @@
       <c r="F58" s="3">
         <v>15.885907</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="4">
         <v>4520</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="4">
         <v>2512</v>
       </c>
     </row>
@@ -2401,10 +2411,10 @@
       <c r="F59" s="3">
         <v>15.737640000000001</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="4">
         <v>6050</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="4">
         <v>982</v>
       </c>
     </row>
@@ -2427,10 +2437,10 @@
       <c r="F60" s="3">
         <v>15.244436</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="4">
         <v>5970</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="4">
         <v>1062</v>
       </c>
     </row>
@@ -2453,10 +2463,10 @@
       <c r="F61" s="3">
         <v>15.796214000000001</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="4">
         <v>5007</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="4">
         <v>2025</v>
       </c>
     </row>
@@ -2479,10 +2489,10 @@
       <c r="F62" s="3">
         <v>15.791850999999999</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="4">
         <v>5554</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="4">
         <v>1478</v>
       </c>
     </row>
@@ -2505,10 +2515,10 @@
       <c r="F63" s="3">
         <v>15.837871</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="4">
         <v>4575</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="4">
         <v>2457</v>
       </c>
     </row>
@@ -2531,10 +2541,10 @@
       <c r="F64" s="3">
         <v>15.794502</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="4">
         <v>5022</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="4">
         <v>2010</v>
       </c>
     </row>
@@ -2557,10 +2567,10 @@
       <c r="F65" s="3">
         <v>15.817779</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="4">
         <v>4040</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="4">
         <v>2992</v>
       </c>
     </row>
@@ -2583,10 +2593,10 @@
       <c r="F66" s="3">
         <v>15.803786000000001</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="4">
         <v>4545</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="4">
         <v>2487</v>
       </c>
     </row>
@@ -2609,10 +2619,10 @@
       <c r="F67" s="3">
         <v>15.90775</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="4">
         <v>5009</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="4">
         <v>2023</v>
       </c>
     </row>
@@ -2635,10 +2645,10 @@
       <c r="F68" s="3">
         <v>15.779173</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="4">
         <v>4598</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="4">
         <v>2434</v>
       </c>
     </row>
@@ -2661,10 +2671,10 @@
       <c r="F69" s="3">
         <v>15.930092999999999</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="4">
         <v>4517</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="4">
         <v>2515</v>
       </c>
     </row>
@@ -2687,10 +2697,10 @@
       <c r="F70" s="3">
         <v>15.907632</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="4">
         <v>4589</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="4">
         <v>2443</v>
       </c>
     </row>
@@ -2713,10 +2723,10 @@
       <c r="F71" s="3">
         <v>15.755519</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="4">
         <v>5946</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="4">
         <v>1086</v>
       </c>
     </row>
@@ -2739,10 +2749,10 @@
       <c r="F72" s="3">
         <v>15.854290000000001</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="4">
         <v>5541</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="4">
         <v>1491</v>
       </c>
     </row>
@@ -2765,10 +2775,10 @@
       <c r="F73" s="3">
         <v>15.706970999999999</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="4">
         <v>5569</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="4">
         <v>1463</v>
       </c>
     </row>
@@ -2791,10 +2801,10 @@
       <c r="F74" s="3">
         <v>15.905832</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="4">
         <v>4072</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="4">
         <v>2960</v>
       </c>
     </row>
@@ -2817,10 +2827,10 @@
       <c r="F75" s="3">
         <v>15.898103000000001</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="4">
         <v>3611</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="4">
         <v>3421</v>
       </c>
     </row>
@@ -2843,10 +2853,10 @@
       <c r="F76" s="3">
         <v>15.782864999999999</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="4">
         <v>4539</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="4">
         <v>2493</v>
       </c>
     </row>
@@ -2869,10 +2879,10 @@
       <c r="F77" s="3">
         <v>15.884829</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="4">
         <v>6022</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="4">
         <v>1010</v>
       </c>
     </row>
@@ -2895,10 +2905,10 @@
       <c r="F78" s="3">
         <v>15.830590000000001</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="4">
         <v>4558</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="4">
         <v>2474</v>
       </c>
     </row>
@@ -2921,10 +2931,10 @@
       <c r="F79" s="3">
         <v>15.762281</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="4">
         <v>5029</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="4">
         <v>2003</v>
       </c>
     </row>
@@ -2947,10 +2957,10 @@
       <c r="F80" s="3">
         <v>15.868912999999999</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="4">
         <v>6026</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="4">
         <v>1006</v>
       </c>
     </row>
@@ -2973,10 +2983,10 @@
       <c r="F81" s="3">
         <v>15.705463</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="4">
         <v>5548</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="4">
         <v>1484</v>
       </c>
     </row>
@@ -2999,10 +3009,10 @@
       <c r="F82" s="3">
         <v>15.791727</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="4">
         <v>5968</v>
       </c>
-      <c r="H82">
+      <c r="H82" s="4">
         <v>1064</v>
       </c>
     </row>
@@ -3025,10 +3035,10 @@
       <c r="F83" s="3">
         <v>15.936923999999999</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="4">
         <v>4566</v>
       </c>
-      <c r="H83">
+      <c r="H83" s="4">
         <v>2466</v>
       </c>
     </row>
@@ -3051,10 +3061,10 @@
       <c r="F84" s="3">
         <v>15.9214</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="4">
         <v>6009</v>
       </c>
-      <c r="H84">
+      <c r="H84" s="4">
         <v>1023</v>
       </c>
     </row>
@@ -3077,10 +3087,10 @@
       <c r="F85" s="3">
         <v>15.887188</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="4">
         <v>5994</v>
       </c>
-      <c r="H85">
+      <c r="H85" s="4">
         <v>1038</v>
       </c>
     </row>
@@ -3103,10 +3113,10 @@
       <c r="F86" s="3">
         <v>15.779907</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="4">
         <v>4523</v>
       </c>
-      <c r="H86">
+      <c r="H86" s="4">
         <v>2509</v>
       </c>
     </row>
@@ -3129,10 +3139,10 @@
       <c r="F87" s="3">
         <v>15.856531</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="4">
         <v>5572</v>
       </c>
-      <c r="H87">
+      <c r="H87" s="4">
         <v>1460</v>
       </c>
     </row>
@@ -3155,10 +3165,10 @@
       <c r="F88" s="3">
         <v>15.849411999999999</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="4">
         <v>4113</v>
       </c>
-      <c r="H88">
+      <c r="H88" s="4">
         <v>2919</v>
       </c>
     </row>
@@ -3181,10 +3191,10 @@
       <c r="F89" s="3">
         <v>15.942838999999999</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="4">
         <v>6025</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="4">
         <v>1007</v>
       </c>
     </row>
@@ -3207,10 +3217,10 @@
       <c r="F90" s="3">
         <v>15.810371999999999</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="4">
         <v>3623</v>
       </c>
-      <c r="H90">
+      <c r="H90" s="4">
         <v>3409</v>
       </c>
     </row>
@@ -3233,10 +3243,10 @@
       <c r="F91" s="3">
         <v>15.912997000000001</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="4">
         <v>6021</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="4">
         <v>1011</v>
       </c>
     </row>
@@ -3259,10 +3269,10 @@
       <c r="F92" s="3">
         <v>15.832077</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="4">
         <v>6025</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="4">
         <v>1007</v>
       </c>
     </row>
@@ -3285,10 +3295,10 @@
       <c r="F93" s="3">
         <v>15.742884999999999</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="4">
         <v>6045</v>
       </c>
-      <c r="H93">
+      <c r="H93" s="4">
         <v>987</v>
       </c>
     </row>
@@ -3311,10 +3321,10 @@
       <c r="F94" s="3">
         <v>15.897415000000001</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="4">
         <v>6008</v>
       </c>
-      <c r="H94">
+      <c r="H94" s="4">
         <v>1024</v>
       </c>
     </row>
@@ -3337,10 +3347,10 @@
       <c r="F95" s="3">
         <v>15.893466</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="4">
         <v>3976</v>
       </c>
-      <c r="H95">
+      <c r="H95" s="4">
         <v>3056</v>
       </c>
     </row>
@@ -3363,10 +3373,10 @@
       <c r="F96" s="3">
         <v>15.879360999999999</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="4">
         <v>4039</v>
       </c>
-      <c r="H96">
+      <c r="H96" s="4">
         <v>2993</v>
       </c>
     </row>
@@ -3389,10 +3399,10 @@
       <c r="F97" s="3">
         <v>15.885369000000001</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="4">
         <v>4566</v>
       </c>
-      <c r="H97">
+      <c r="H97" s="4">
         <v>2466</v>
       </c>
     </row>
@@ -3415,10 +3425,10 @@
       <c r="F98" s="3">
         <v>15.864729000000001</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="4">
         <v>5630</v>
       </c>
-      <c r="H98">
+      <c r="H98" s="4">
         <v>1402</v>
       </c>
     </row>
@@ -3441,10 +3451,10 @@
       <c r="F99" s="3">
         <v>15.855444</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="4">
         <v>4018</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="4">
         <v>3014</v>
       </c>
     </row>
@@ -3467,10 +3477,10 @@
       <c r="F100" s="3">
         <v>15.980874999999999</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="4">
         <v>4529</v>
       </c>
-      <c r="H100">
+      <c r="H100" s="4">
         <v>2503</v>
       </c>
     </row>
@@ -3493,10 +3503,10 @@
       <c r="F101" s="3">
         <v>15.908174000000001</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="4">
         <v>6004</v>
       </c>
-      <c r="H101">
+      <c r="H101" s="4">
         <v>1028</v>
       </c>
     </row>
@@ -3519,10 +3529,10 @@
       <c r="F102" s="3">
         <v>15.915507</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="4">
         <v>3598</v>
       </c>
-      <c r="H102">
+      <c r="H102" s="4">
         <v>3434</v>
       </c>
     </row>
@@ -3545,10 +3555,10 @@
       <c r="F103" s="3">
         <v>16.007103999999998</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="4">
         <v>5528</v>
       </c>
-      <c r="H103">
+      <c r="H103" s="4">
         <v>1504</v>
       </c>
     </row>
@@ -3571,10 +3581,10 @@
       <c r="F104" s="3">
         <v>15.903999000000001</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="4">
         <v>4589</v>
       </c>
-      <c r="H104">
+      <c r="H104" s="4">
         <v>2443</v>
       </c>
     </row>
@@ -3597,10 +3607,10 @@
       <c r="F105" s="3">
         <v>15.961459</v>
       </c>
-      <c r="G105">
+      <c r="G105" s="4">
         <v>3571</v>
       </c>
-      <c r="H105">
+      <c r="H105" s="4">
         <v>3461</v>
       </c>
     </row>
@@ -3623,10 +3633,10 @@
       <c r="F106" s="3">
         <v>15.956242</v>
       </c>
-      <c r="G106">
+      <c r="G106" s="4">
         <v>3031</v>
       </c>
-      <c r="H106">
+      <c r="H106" s="4">
         <v>4001</v>
       </c>
     </row>
@@ -3649,10 +3659,10 @@
       <c r="F107" s="3">
         <v>15.924932</v>
       </c>
-      <c r="G107">
+      <c r="G107" s="4">
         <v>3608</v>
       </c>
-      <c r="H107">
+      <c r="H107" s="4">
         <v>3424</v>
       </c>
     </row>
@@ -3675,10 +3685,10 @@
       <c r="F108" s="3">
         <v>15.824223</v>
       </c>
-      <c r="G108">
+      <c r="G108" s="4">
         <v>6038</v>
       </c>
-      <c r="H108">
+      <c r="H108" s="4">
         <v>994</v>
       </c>
     </row>
@@ -3701,10 +3711,10 @@
       <c r="F109" s="3">
         <v>15.965427999999999</v>
       </c>
-      <c r="G109">
+      <c r="G109" s="4">
         <v>2960</v>
       </c>
-      <c r="H109">
+      <c r="H109" s="4">
         <v>4072</v>
       </c>
     </row>
@@ -3727,10 +3737,10 @@
       <c r="F110" s="3">
         <v>15.934008</v>
       </c>
-      <c r="G110">
+      <c r="G110" s="4">
         <v>6067</v>
       </c>
-      <c r="H110">
+      <c r="H110" s="4">
         <v>965</v>
       </c>
     </row>
@@ -3753,10 +3763,10 @@
       <c r="F111" s="3">
         <v>15.895462999999999</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="4">
         <v>4547</v>
       </c>
-      <c r="H111">
+      <c r="H111" s="4">
         <v>2485</v>
       </c>
     </row>
@@ -3779,10 +3789,10 @@
       <c r="F112" s="3">
         <v>15.834350000000001</v>
       </c>
-      <c r="G112">
+      <c r="G112" s="4">
         <v>6063</v>
       </c>
-      <c r="H112">
+      <c r="H112" s="4">
         <v>969</v>
       </c>
     </row>
@@ -3805,10 +3815,10 @@
       <c r="F113" s="3">
         <v>15.920303000000001</v>
       </c>
-      <c r="G113">
+      <c r="G113" s="4">
         <v>4033</v>
       </c>
-      <c r="H113">
+      <c r="H113" s="4">
         <v>2999</v>
       </c>
     </row>
@@ -3831,10 +3841,10 @@
       <c r="F114" s="3">
         <v>15.787853</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="4">
         <v>6051</v>
       </c>
-      <c r="H114">
+      <c r="H114" s="4">
         <v>981</v>
       </c>
     </row>
@@ -3857,10 +3867,10 @@
       <c r="F115" s="3">
         <v>15.956913999999999</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="4">
         <v>4639</v>
       </c>
-      <c r="H115">
+      <c r="H115" s="4">
         <v>2393</v>
       </c>
     </row>
@@ -3883,10 +3893,10 @@
       <c r="F116" s="3">
         <v>15.901921</v>
       </c>
-      <c r="G116">
+      <c r="G116" s="4">
         <v>3992</v>
       </c>
-      <c r="H116">
+      <c r="H116" s="4">
         <v>3040</v>
       </c>
     </row>
@@ -3909,10 +3919,10 @@
       <c r="F117" s="3">
         <v>15.878392</v>
       </c>
-      <c r="G117">
+      <c r="G117" s="4">
         <v>3539</v>
       </c>
-      <c r="H117">
+      <c r="H117" s="4">
         <v>3493</v>
       </c>
     </row>
@@ -3935,10 +3945,10 @@
       <c r="F118" s="3">
         <v>15.793238000000001</v>
       </c>
-      <c r="G118">
+      <c r="G118" s="4">
         <v>6071</v>
       </c>
-      <c r="H118">
+      <c r="H118" s="4">
         <v>961</v>
       </c>
     </row>
@@ -3961,10 +3971,10 @@
       <c r="F119" s="3">
         <v>15.93943</v>
       </c>
-      <c r="G119">
+      <c r="G119" s="4">
         <v>4035</v>
       </c>
-      <c r="H119">
+      <c r="H119" s="4">
         <v>2997</v>
       </c>
     </row>
@@ -3987,10 +3997,10 @@
       <c r="F120" s="3">
         <v>15.908281000000001</v>
       </c>
-      <c r="G120">
+      <c r="G120" s="4">
         <v>6009</v>
       </c>
-      <c r="H120">
+      <c r="H120" s="4">
         <v>1023</v>
       </c>
     </row>
@@ -4013,10 +4023,10 @@
       <c r="F121" s="3">
         <v>15.914009999999999</v>
       </c>
-      <c r="G121">
+      <c r="G121" s="4">
         <v>3528</v>
       </c>
-      <c r="H121">
+      <c r="H121" s="4">
         <v>3504</v>
       </c>
     </row>
@@ -4039,10 +4049,10 @@
       <c r="F122" s="3">
         <v>15.841536</v>
       </c>
-      <c r="G122">
+      <c r="G122" s="4">
         <v>4986</v>
       </c>
-      <c r="H122">
+      <c r="H122" s="4">
         <v>2046</v>
       </c>
     </row>
@@ -4065,10 +4075,10 @@
       <c r="F123" s="3">
         <v>15.855305</v>
       </c>
-      <c r="G123">
+      <c r="G123" s="4">
         <v>4517</v>
       </c>
-      <c r="H123">
+      <c r="H123" s="4">
         <v>2515</v>
       </c>
     </row>
@@ -4091,10 +4101,10 @@
       <c r="F124" s="3">
         <v>16.049966000000001</v>
       </c>
-      <c r="G124">
+      <c r="G124" s="4">
         <v>6003</v>
       </c>
-      <c r="H124">
+      <c r="H124" s="4">
         <v>1029</v>
       </c>
     </row>
@@ -4117,10 +4127,10 @@
       <c r="F125" s="3">
         <v>15.775528</v>
       </c>
-      <c r="G125">
+      <c r="G125" s="4">
         <v>5643</v>
       </c>
-      <c r="H125">
+      <c r="H125" s="4">
         <v>1389</v>
       </c>
     </row>
@@ -4143,10 +4153,10 @@
       <c r="F126" s="3">
         <v>15.883240000000001</v>
       </c>
-      <c r="G126">
+      <c r="G126" s="4">
         <v>6054</v>
       </c>
-      <c r="H126">
+      <c r="H126" s="4">
         <v>978</v>
       </c>
     </row>
@@ -4169,10 +4179,10 @@
       <c r="F127" s="3">
         <v>15.992397</v>
       </c>
-      <c r="G127">
+      <c r="G127" s="4">
         <v>6026</v>
       </c>
-      <c r="H127">
+      <c r="H127" s="4">
         <v>1006</v>
       </c>
     </row>
@@ -4195,10 +4205,10 @@
       <c r="F128" s="3">
         <v>16.029395999999998</v>
       </c>
-      <c r="G128">
+      <c r="G128" s="4">
         <v>6050</v>
       </c>
-      <c r="H128">
+      <c r="H128" s="4">
         <v>982</v>
       </c>
     </row>
@@ -4221,10 +4231,10 @@
       <c r="F129" s="3">
         <v>15.831064</v>
       </c>
-      <c r="G129">
+      <c r="G129" s="4">
         <v>5979</v>
       </c>
-      <c r="H129">
+      <c r="H129" s="4">
         <v>1053</v>
       </c>
     </row>
@@ -4247,10 +4257,10 @@
       <c r="F130" s="3">
         <v>16.012535</v>
       </c>
-      <c r="G130">
+      <c r="G130" s="4">
         <v>4580</v>
       </c>
-      <c r="H130">
+      <c r="H130" s="4">
         <v>2452</v>
       </c>
     </row>
@@ -4273,10 +4283,10 @@
       <c r="F131" s="3">
         <v>15.865862</v>
       </c>
-      <c r="G131">
+      <c r="G131" s="4">
         <v>6010</v>
       </c>
-      <c r="H131">
+      <c r="H131" s="4">
         <v>1022</v>
       </c>
     </row>
@@ -4299,10 +4309,10 @@
       <c r="F132" s="3">
         <v>15.792842</v>
       </c>
-      <c r="G132">
+      <c r="G132" s="4">
         <v>6042</v>
       </c>
-      <c r="H132">
+      <c r="H132" s="4">
         <v>990</v>
       </c>
     </row>
@@ -4325,10 +4335,10 @@
       <c r="F133" s="3">
         <v>15.77303</v>
       </c>
-      <c r="G133">
+      <c r="G133" s="4">
         <v>6054</v>
       </c>
-      <c r="H133">
+      <c r="H133" s="4">
         <v>978</v>
       </c>
     </row>
@@ -4351,10 +4361,10 @@
       <c r="F134" s="3">
         <v>15.950309000000001</v>
       </c>
-      <c r="G134">
+      <c r="G134" s="4">
         <v>5537</v>
       </c>
-      <c r="H134">
+      <c r="H134" s="4">
         <v>1495</v>
       </c>
     </row>
@@ -4377,10 +4387,10 @@
       <c r="F135" s="3">
         <v>15.976004</v>
       </c>
-      <c r="G135">
+      <c r="G135" s="4">
         <v>5976</v>
       </c>
-      <c r="H135">
+      <c r="H135" s="4">
         <v>1056</v>
       </c>
     </row>
@@ -4403,10 +4413,10 @@
       <c r="F136" s="3">
         <v>15.909108</v>
       </c>
-      <c r="G136">
+      <c r="G136" s="4">
         <v>5536</v>
       </c>
-      <c r="H136">
+      <c r="H136" s="4">
         <v>1496</v>
       </c>
     </row>
@@ -4429,10 +4439,10 @@
       <c r="F137" s="3">
         <v>16.049265999999999</v>
       </c>
-      <c r="G137">
+      <c r="G137" s="4">
         <v>5996</v>
       </c>
-      <c r="H137">
+      <c r="H137" s="4">
         <v>1036</v>
       </c>
     </row>
@@ -4455,10 +4465,10 @@
       <c r="F138" s="3">
         <v>15.959524</v>
       </c>
-      <c r="G138">
+      <c r="G138" s="4">
         <v>6012</v>
       </c>
-      <c r="H138">
+      <c r="H138" s="4">
         <v>1020</v>
       </c>
     </row>
@@ -4481,10 +4491,10 @@
       <c r="F139" s="3">
         <v>15.925737</v>
       </c>
-      <c r="G139">
+      <c r="G139" s="4">
         <v>6001</v>
       </c>
-      <c r="H139">
+      <c r="H139" s="4">
         <v>1031</v>
       </c>
     </row>
@@ -4507,10 +4517,10 @@
       <c r="F140" s="3">
         <v>16.008348000000002</v>
       </c>
-      <c r="G140">
+      <c r="G140" s="4">
         <v>5536</v>
       </c>
-      <c r="H140">
+      <c r="H140" s="4">
         <v>1496</v>
       </c>
     </row>
@@ -4533,10 +4543,10 @@
       <c r="F141" s="3">
         <v>15.998818</v>
       </c>
-      <c r="G141">
+      <c r="G141" s="4">
         <v>4586</v>
       </c>
-      <c r="H141">
+      <c r="H141" s="4">
         <v>2446</v>
       </c>
     </row>
@@ -4559,10 +4569,10 @@
       <c r="F142" s="3">
         <v>16.043811999999999</v>
       </c>
-      <c r="G142">
+      <c r="G142" s="4">
         <v>6089</v>
       </c>
-      <c r="H142">
+      <c r="H142" s="4">
         <v>943</v>
       </c>
     </row>
@@ -4585,10 +4595,10 @@
       <c r="F143" s="3">
         <v>15.994185</v>
       </c>
-      <c r="G143">
+      <c r="G143" s="4">
         <v>4627</v>
       </c>
-      <c r="H143">
+      <c r="H143" s="4">
         <v>2405</v>
       </c>
     </row>
@@ -4611,10 +4621,10 @@
       <c r="F144" s="3">
         <v>16.096551000000002</v>
       </c>
-      <c r="G144">
+      <c r="G144" s="4">
         <v>6063</v>
       </c>
-      <c r="H144">
+      <c r="H144" s="4">
         <v>969</v>
       </c>
     </row>
@@ -4637,10 +4647,10 @@
       <c r="F145" s="3">
         <v>15.867191</v>
       </c>
-      <c r="G145">
+      <c r="G145" s="4">
         <v>6035</v>
       </c>
-      <c r="H145">
+      <c r="H145" s="4">
         <v>997</v>
       </c>
     </row>
@@ -4663,10 +4673,10 @@
       <c r="F146" s="3">
         <v>15.980857</v>
       </c>
-      <c r="G146">
+      <c r="G146" s="4">
         <v>5997</v>
       </c>
-      <c r="H146">
+      <c r="H146" s="4">
         <v>1035</v>
       </c>
     </row>
@@ -4689,10 +4699,10 @@
       <c r="F147" s="3">
         <v>16.221218</v>
       </c>
-      <c r="G147">
+      <c r="G147" s="4">
         <v>5997</v>
       </c>
-      <c r="H147">
+      <c r="H147" s="4">
         <v>1035</v>
       </c>
     </row>
@@ -4715,10 +4725,10 @@
       <c r="F148" s="3">
         <v>16.119900000000001</v>
       </c>
-      <c r="G148">
+      <c r="G148" s="4">
         <v>5967</v>
       </c>
-      <c r="H148">
+      <c r="H148" s="4">
         <v>1065</v>
       </c>
     </row>
